--- a/pred_ohlcv/54_21/2019-11-21 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>6044.034100000003</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1768.476300000003</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2008.858300000003</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -652,7 +652,7 @@
         <v>22193.81440000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>28236.96560000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>15746.24980000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>19549.94800000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>17516.94800000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>19442.66300000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>19442.66300000001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>19443.97200000001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>6464.433400000008</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2032.378499999993</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2719.913099999992</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2688.300099999993</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-3926.593699999993</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3926.593699999993</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3000.110199999993</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2522.181999999993</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2542.089199999993</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2573.561799999993</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-3080.431499999993</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-3080.431499999993</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3079.031499999993</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-3320.207399999993</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3637.281499999993</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-3637.281499999993</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-4666.790399999993</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-4666.790399999993</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-4666.790399999993</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-4545.439299999994</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-4045.439299999994</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-4045.439299999994</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-4045.439299999994</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-4638.778699999997</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-4715.278699999997</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4274.878699999997</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-4274.878699999997</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-4172.878699999997</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>19375.29167875</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>19375.29167875</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>19221.29167875</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>19221.29167875</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>18396.69917875</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>18396.69917875</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>18396.69917875</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>18396.69917875</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>16908.10437875</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>17492.02017875</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>17762.52697875</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>17762.52697875</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>17719.01877875</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>11218.59357875</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>11218.59357875</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>7547.15337875</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>7547.15337875</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>8247.828778749999</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>10280.16887875</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>10180.16887875</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-21 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>6044.034100000003</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1768.476300000003</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2008.858300000003</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>16203.4328</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -652,7 +652,7 @@
         <v>22193.81440000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>28236.96560000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>15746.24980000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>19549.94800000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>17516.94800000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>19442.66300000001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>19442.66300000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>19443.97200000001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>6464.433400000008</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2032.378499999993</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2719.913099999992</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2688.300099999993</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-3926.593699999993</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3926.593699999993</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3000.110199999993</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2522.181999999993</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2542.089199999993</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2573.561799999993</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-3080.431499999993</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-3080.431499999993</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3079.031499999993</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-3320.207399999993</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3637.281499999993</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-3637.281499999993</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-4666.790399999993</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-4666.790399999993</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-4666.790399999993</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-4545.439299999994</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-4045.439299999994</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-4045.439299999994</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-4045.439299999994</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4487.378699999997</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-4715.278699999997</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-4274.878699999997</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-4274.878699999997</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-4172.878699999997</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>16656.73197875</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>16656.73197875</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>16656.73197875</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>16656.73197875</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>17736.27707875</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>18578.29167875</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>19241.29167875</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>19375.29167875</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>19375.29167875</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>19221.29167875</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>19221.29167875</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>18396.69917875</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>18396.69917875</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>18396.69917875</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>18396.69917875</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>18396.69917875</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>16908.10437875</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>17492.02017875</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>17762.52697875</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>17762.52697875</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>17719.01877875</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>11218.59357875</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
